--- a/ProjektDoku/Zeiterfassung.xlsx
+++ b/ProjektDoku/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Documents\GitHub\NWUP\ProjektDoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C86D8C-CA51-47FA-9110-F0ADE168E01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F23A0-B275-4AAF-BBDB-07269DB38441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EF73EC2-AB4A-4512-8846-FCDFDD22B4FD}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <dimension ref="B2:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
     <col min="13" max="13" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -772,20 +772,20 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1">
-        <v>30</v>
-      </c>
-      <c r="E11" s="8">
-        <v>44073</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="8"/>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1">
+        <v>30</v>
+      </c>
+      <c r="J11" s="8">
+        <v>44073</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
@@ -814,7 +814,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="12">
         <f>SUM(D4:D13)/60</f>
-        <v>35.833333333333336</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="I14" s="12">
         <f>SUM(I4:I13)/60</f>
-        <v>38</v>
+        <v>38.5</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>6</v>
